--- a/HW3/total_area_part2.xlsx
+++ b/HW3/total_area_part2.xlsx
@@ -8,14 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbccuser/CodeProjects/Tufts/EECE0193/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB3AB16-5F5C-C944-8788-2529CDC5EE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F7CCB-BC5F-404A-AA92-087316FDA5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="15040" xr2:uid="{D6C17E87-740D-9242-9C43-050EE16A1E51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{D6C17E87-740D-9242-9C43-050EE16A1E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="area" sheetId="1" r:id="rId1"/>
+    <sheet name="latency" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">area!$F$4:$F$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">area!$G$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">area!$K$4:$K$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">area!$F$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">area!$F$4:$F$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">area!$G$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">area!$G$4:$G$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">area!$H$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">area!$H$4:$H$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">area!$I$3</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">area!$I$4:$I$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">area!$J$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">area!$G$4:$G$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">area!$J$4:$J$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">area!$K$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">area!$K$4:$K$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">area!$H$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">area!$H$4:$H$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">area!$I$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">area!$I$4:$I$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">area!$J$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">area!$J$4:$J$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">area!$K$3</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">area!$F$3</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">area!$F$4:$F$11</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">area!$G$3</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">area!$G$4:$G$11</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">area!$H$3</definedName>
+    <definedName name="_xlchart.v2.28" hidden="1">area!$H$4:$H$11</definedName>
+    <definedName name="_xlchart.v2.29" hidden="1">area!$I$3</definedName>
+    <definedName name="_xlchart.v2.30" hidden="1">area!$I$4:$I$11</definedName>
+    <definedName name="_xlchart.v2.31" hidden="1">area!$J$3</definedName>
+    <definedName name="_xlchart.v2.32" hidden="1">area!$J$4:$J$11</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">area!$K$3</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">area!$K$4:$K$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +70,155 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_32K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_128K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_256K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_512K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_16K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_1024K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_64K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_MLC_Par/RRAM_2048K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_32K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_128K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_256K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_512K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_16K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_64K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_2048K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part2_RRAM_SLC_Par/RRAM_1024K_2LV.out</t>
+  </si>
+  <si>
+    <t>cell output results</t>
+  </si>
+  <si>
+    <t>Total Area (mm^2)</t>
+  </si>
+  <si>
+    <t>SRAM SLC Ser</t>
+  </si>
+  <si>
+    <t>RRAM 2 LV Ser</t>
+  </si>
+  <si>
+    <t>RRAM 4 LV Ser</t>
+  </si>
+  <si>
+    <t>RRAM 2 LV Par</t>
+  </si>
+  <si>
+    <t>RRAM 4 LV Par</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_2048K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_256K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_128K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_32K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_64K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_1024K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_512K.out</t>
+  </si>
+  <si>
+    <t>./Part1_SRAM/SRAM_16K.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_32K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_128K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_256K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_512K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_16K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_1024K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_64K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_MLC_Ser/RRAM_2048K_4LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_32K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_128K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_256K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_512K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_16K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_64K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_2048K_2LV.out</t>
+  </si>
+  <si>
+    <t>./Part1_RRAM_SLC_Ser/RRAM_1024K_2LV.out</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +252,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +276,2935 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Total Area (um^2) vs Cache Capacity (KB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>area!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM SLC Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>area!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>area!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10938.200999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40688.150999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82310.717999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139903.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275761.38900000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>540708.53099999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>781533.98899999994</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1468000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E66-4A40-A42E-C3C12769940F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>area!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 2 LV Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>area!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>area!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77130.063999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78901.896999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82209.858999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73430.933999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107739.149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215478.29800000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246124.764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512805.68300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E66-4A40-A42E-C3C12769940F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>area!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 4 LV Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>area!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>area!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>76124.316000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77130.063999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78901.896999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82209.858999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73430.933999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107739.149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123062.382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246124.764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E66-4A40-A42E-C3C12769940F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>area!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 2 LV Par</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>area!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>area!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>378000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>413000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>687000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E66-4A40-A42E-C3C12769940F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>area!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 4 LV Par</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>area!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>area!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>413000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5E66-4A40-A42E-C3C12769940F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1389036048"/>
+        <c:axId val="1389233296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1389036048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Capacity (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4915315387746283"/>
+              <c:y val="0.88900203485800222"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389233296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1389233296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Area (um^2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389036048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Read Latency (ns) vs Cache Capacity (KB)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>latency!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM SLC Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>latency!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.63577099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13309299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31688600000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.413358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74596400000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1800000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BFA-D647-97C2-0A9BAF8131CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>latency!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 2 LV Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>latency!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$H$28:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2879999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BFA-D647-97C2-0A9BAF8131CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>latency!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 4 LV Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>latency!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$I$28:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2779999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BFA-D647-97C2-0A9BAF8131CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>latency!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 2 LV Par</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>latency!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$J$28:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2879999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BFA-D647-97C2-0A9BAF8131CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>latency!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM 4 LV Par</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>latency!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$K$28:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BFA-D647-97C2-0A9BAF8131CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1326529792"/>
+        <c:axId val="1363669616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326529792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Capacity (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363669616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363669616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Read Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326529792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F519CCD-6B0C-7D4E-AE6C-3D110AB08920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2681111</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>58796</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23519</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C3333F-B5CD-6645-AEC6-6D23F5789FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +3504,1044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83804FF-F6A4-6F4E-B32A-3738F722DA20}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C2">
+        <f>B2*1000000</f>
+        <v>146000</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">B3*1000000</f>
+        <v>162000</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>203000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10938.200999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>77130.063999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>76124.316000000006</v>
+      </c>
+      <c r="J4">
+        <v>146000</v>
+      </c>
+      <c r="K4">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.189</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>189000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3">
+        <v>40688.150999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>78901.896999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>77130.063999999998</v>
+      </c>
+      <c r="J5">
+        <v>148000</v>
+      </c>
+      <c r="K5">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>213000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3">
+        <v>82310.717999999993</v>
+      </c>
+      <c r="H6" s="3">
+        <v>82209.858999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>78901.896999999997</v>
+      </c>
+      <c r="J6">
+        <v>162000</v>
+      </c>
+      <c r="K6">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.378</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>378000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>128</v>
+      </c>
+      <c r="G7" s="3">
+        <v>139903.37</v>
+      </c>
+      <c r="H7" s="3">
+        <v>73430.933999999994</v>
+      </c>
+      <c r="I7" s="3">
+        <v>82209.858999999997</v>
+      </c>
+      <c r="J7">
+        <v>203000</v>
+      </c>
+      <c r="K7">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>148000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>256</v>
+      </c>
+      <c r="G8" s="3">
+        <v>275761.38900000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>107739.149</v>
+      </c>
+      <c r="I8" s="3">
+        <v>73430.933999999994</v>
+      </c>
+      <c r="J8">
+        <v>189000</v>
+      </c>
+      <c r="K8">
+        <v>203000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>413000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>512</v>
+      </c>
+      <c r="G9" s="3">
+        <v>540708.53099999996</v>
+      </c>
+      <c r="H9" s="3">
+        <v>215478.29800000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>107739.149</v>
+      </c>
+      <c r="J9">
+        <v>378000</v>
+      </c>
+      <c r="K9">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>148000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G10" s="3">
+        <v>781533.98899999994</v>
+      </c>
+      <c r="H10" s="3">
+        <v>246124.764</v>
+      </c>
+      <c r="I10" s="3">
+        <v>123062.382</v>
+      </c>
+      <c r="J10">
+        <v>413000</v>
+      </c>
+      <c r="K10">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>203000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G11">
+        <v>1468000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>512805.68300000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>246124.764</v>
+      </c>
+      <c r="J11">
+        <v>687000</v>
+      </c>
+      <c r="K11">
+        <v>413000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.189</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.378</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>687000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>413000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1100D4-11F0-464C-9935-695DADD5B2A4}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="1.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="13" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1.18</v>
+      </c>
+      <c r="C2">
+        <f>B2*0.001</f>
+        <v>1.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>316.88600000000002</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">B3*0.001</f>
+        <v>0.31688600000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>204.995</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.20499500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>133.09299999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.13309299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>161.08099999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.161081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>745.96400000000006</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.74596400000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>413.358</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.413358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>635.77099999999996</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.63577099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>4.79</v>
+      </c>
+      <c r="C10">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="C11">
+        <v>4.9829999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>4.95</v>
+      </c>
+      <c r="C12">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="C13">
+        <v>4.9720000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>4.7439999999999998</v>
+      </c>
+      <c r="C14">
+        <v>4.7439999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="C15">
+        <v>5.2249999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="C16">
+        <v>4.8520000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="C17">
+        <v>5.2779999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="C20">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="C21">
+        <v>2.1040000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>1.877</v>
+      </c>
+      <c r="C22">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C23">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C24">
+        <v>2.2879999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>2.37</v>
+      </c>
+      <c r="C25">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>0.63577099999999998</v>
+      </c>
+      <c r="H28">
+        <v>1.877</v>
+      </c>
+      <c r="I28">
+        <v>4.7439999999999998</v>
+      </c>
+      <c r="J28">
+        <v>1.877</v>
+      </c>
+      <c r="K28">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>0.13309299999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="I29">
+        <v>4.79</v>
+      </c>
+      <c r="J29">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="K29">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>0.161081</v>
+      </c>
+      <c r="H30">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I30">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="J30">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K30">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <v>128</v>
+      </c>
+      <c r="G31">
+        <v>0.20499500000000001</v>
+      </c>
+      <c r="H31">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I31">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="J31">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="K31">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F32" s="1">
+        <v>256</v>
+      </c>
+      <c r="G32">
+        <v>0.31688600000000006</v>
+      </c>
+      <c r="H32">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="I32">
+        <v>4.95</v>
+      </c>
+      <c r="J32">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="K32">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>512</v>
+      </c>
+      <c r="G33">
+        <v>0.413358</v>
+      </c>
+      <c r="H33">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="I33">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="J33">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="K33">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G34">
+        <v>0.74596400000000007</v>
+      </c>
+      <c r="H34">
+        <v>2.37</v>
+      </c>
+      <c r="I34">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="J34">
+        <v>2.37</v>
+      </c>
+      <c r="K34">
+        <v>2.1040000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G35">
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="I35">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="J35">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="K35">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1.877</v>
+      </c>
+      <c r="C39">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C40">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="C41">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="C42">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1.83</v>
+      </c>
+      <c r="C43">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="C44">
+        <v>2.1040000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="C45">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>2.37</v>
+      </c>
+      <c r="C46">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="C49">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="C50">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="C51">
+        <v>2.1040000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>1.877</v>
+      </c>
+      <c r="C52">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C53">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C54">
+        <v>2.2879999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>2.37</v>
+      </c>
+      <c r="C55">
+        <v>2.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>